--- a/설계/로그 서버 테이블 구성.xlsx
+++ b/설계/로그 서버 테이블 구성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78FC3CE-B48D-40F6-A007-7E1AF83BFA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7AB3C0-2F9C-4C91-8FF8-1B3DBF33157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EAF5FC4-F012-4178-986B-C2CFF2E5DC1D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
   <si>
     <t>login_log</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,14 @@
   </si>
   <si>
     <t>PK, auto_increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0F4ABC-3C6A-454F-B03A-69DFA127C53B}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -789,10 +797,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -803,108 +811,108 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
@@ -912,125 +920,125 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
         <v>49</v>
@@ -1038,13 +1046,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -1052,13 +1060,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
@@ -1066,125 +1074,125 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
         <v>49</v>
@@ -1192,13 +1200,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
         <v>49</v>
@@ -1206,13 +1214,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
         <v>49</v>
@@ -1220,13 +1228,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
@@ -1234,125 +1242,125 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>10</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>16</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="D46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
         <v>49</v>
@@ -1360,13 +1368,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
         <v>49</v>
@@ -1374,13 +1382,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
         <v>49</v>
@@ -1388,29 +1396,43 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>9</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>40</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>51</v>
       </c>
     </row>

--- a/설계/로그 서버 테이블 구성.xlsx
+++ b/설계/로그 서버 테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7AB3C0-2F9C-4C91-8FF8-1B3DBF33157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D596B7D1-7670-4E63-8A73-B1B5B73EC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EAF5FC4-F012-4178-986B-C2CFF2E5DC1D}"/>
+    <workbookView xWindow="3480" yWindow="2595" windowWidth="21600" windowHeight="11265" xr2:uid="{1EAF5FC4-F012-4178-986B-C2CFF2E5DC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>changed_user_equip_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asset_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +250,10 @@
   </si>
   <si>
     <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_user_equip_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0F4ABC-3C6A-454F-B03A-69DFA127C53B}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,13 +699,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -716,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -730,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -744,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -758,10 +758,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -772,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -786,10 +786,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,10 +814,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -828,10 +828,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -867,13 +867,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -884,10 +884,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -912,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -926,10 +926,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -940,10 +940,10 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -993,13 +993,13 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1010,10 +1010,10 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,10 +1024,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1052,10 +1052,10 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1066,10 +1066,10 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1080,10 +1080,10 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1094,10 +1094,10 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1108,10 +1108,10 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1147,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1164,10 +1164,10 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1178,10 +1178,10 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1192,10 +1192,10 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1206,10 +1206,10 @@
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1220,10 +1220,10 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1231,13 +1231,13 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1248,10 +1248,10 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1262,10 +1262,10 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1276,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1332,10 +1332,10 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1346,10 +1346,10 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,10 +1360,10 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1374,10 +1374,10 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1388,10 +1388,10 @@
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1399,13 +1399,13 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1416,10 +1416,10 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1430,10 +1430,10 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
